--- a/raw_data/20200818_saline/20200818_Sensor1_Test_81.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_81.xlsx
@@ -1,479 +1,895 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88D544B-6818-4EC5-AC9B-FF181271E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>72189.205424</v>
       </c>
@@ -481,1298 +897,1298 @@
         <v>20.052557</v>
       </c>
       <c r="C2" s="1">
-        <v>902.757000</v>
+        <v>902.75699999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-195.048000</v>
+        <v>-195.048</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>72199.589698</v>
+        <v>72199.589697999996</v>
       </c>
       <c r="G2" s="1">
-        <v>20.055442</v>
+        <v>20.055441999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>919.636000</v>
+        <v>919.63599999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.051000</v>
+        <v>-166.05099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>72210.686659</v>
+        <v>72210.686658999999</v>
       </c>
       <c r="L2" s="1">
-        <v>20.058524</v>
+        <v>20.058523999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>942.643000</v>
+        <v>942.64300000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.493000</v>
+        <v>-118.49299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>72220.965253</v>
+        <v>72220.965253000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.061379</v>
+        <v>20.061378999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>949.651000</v>
+        <v>949.65099999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.796000</v>
+        <v>-102.79600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>72231.253806</v>
+        <v>72231.253805999993</v>
       </c>
       <c r="V2" s="1">
-        <v>20.064237</v>
+        <v>20.064236999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>956.471000</v>
+        <v>956.471</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.342000</v>
+        <v>-88.341999999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>72241.368187</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.067047</v>
+        <v>20.067046999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.021000</v>
+        <v>964.02099999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.046400</v>
+        <v>-77.046400000000006</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>72251.643309</v>
+        <v>72251.643309000006</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.069901</v>
+        <v>20.069901000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.021000</v>
+        <v>969.02099999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.898600</v>
+        <v>-74.898600000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72261.750785</v>
+        <v>72261.750784999997</v>
       </c>
       <c r="AK2" s="1">
         <v>20.072709</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.486000</v>
+        <v>976.48599999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.549400</v>
+        <v>-79.549400000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>72272.674675</v>
+        <v>72272.674675000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.075743</v>
+        <v>20.075742999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.743000</v>
+        <v>984.74300000000005</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.895800</v>
+        <v>-90.895799999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>72283.574755</v>
+        <v>72283.574754999994</v>
       </c>
       <c r="AU2" s="1">
         <v>20.078771</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.728000</v>
+        <v>994.72799999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.251000</v>
+        <v>-108.251</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>72294.710964</v>
+        <v>72294.710963999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.081864</v>
+        <v>20.081863999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>72305.689383</v>
+        <v>72305.689383000004</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.084914</v>
+        <v>20.084914000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.364000</v>
+        <v>-194.364</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>72316.756129</v>
+        <v>72316.756129000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>20.087988</v>
+        <v>20.087987999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1108.760000</v>
+        <v>1108.76</v>
       </c>
       <c r="BL2" s="1">
-        <v>-308.396000</v>
+        <v>-308.39600000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>72328.304009</v>
+        <v>72328.304008999999</v>
       </c>
       <c r="BO2" s="1">
         <v>20.091196</v>
       </c>
       <c r="BP2" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-487.044000</v>
+        <v>-487.04399999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>72340.618686</v>
+        <v>72340.618686000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.094616</v>
+        <v>20.094615999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.070000</v>
+        <v>1337.07</v>
       </c>
       <c r="BV2" s="1">
-        <v>-681.923000</v>
+        <v>-681.923</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>72351.343641</v>
+        <v>72351.343640999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>20.097595</v>
+        <v>20.097594999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.440000</v>
+        <v>1471.44</v>
       </c>
       <c r="CA2" s="1">
-        <v>-889.327000</v>
+        <v>-889.327</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>72362.507596</v>
+        <v>72362.507595999996</v>
       </c>
       <c r="CD2" s="1">
         <v>20.100697</v>
       </c>
       <c r="CE2" s="1">
-        <v>1819.280000</v>
+        <v>1819.28</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1379.300000</v>
+        <v>-1379.3</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>72189.881967</v>
+        <v>72189.881966999994</v>
       </c>
       <c r="B3" s="1">
-        <v>20.052745</v>
+        <v>20.052745000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>902.874000</v>
+        <v>902.87400000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-195.016000</v>
+        <v>-195.01599999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>72200.258769</v>
+        <v>72200.258768999993</v>
       </c>
       <c r="G3" s="1">
-        <v>20.055627</v>
+        <v>20.055627000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.747000</v>
+        <v>919.74699999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-165.526000</v>
+        <v>-165.52600000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>72211.092386</v>
+        <v>72211.092386000004</v>
       </c>
       <c r="L3" s="1">
-        <v>20.058637</v>
+        <v>20.058637000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>942.691000</v>
+        <v>942.69100000000003</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.421000</v>
+        <v>-118.42100000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>72221.318406</v>
+        <v>72221.318406000006</v>
       </c>
       <c r="Q3" s="1">
         <v>20.061477</v>
       </c>
       <c r="R3" s="1">
-        <v>949.638000</v>
+        <v>949.63800000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>72231.600472</v>
+        <v>72231.600472000006</v>
       </c>
       <c r="V3" s="1">
-        <v>20.064333</v>
+        <v>20.064333000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>956.394000</v>
+        <v>956.39400000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.341800</v>
+        <v>-88.341800000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>72241.750602</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.067153</v>
+        <v>20.067153000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.026000</v>
+        <v>964.02599999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.021800</v>
+        <v>-77.021799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>72252.065902</v>
+        <v>72252.065902000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.070018</v>
+        <v>20.070018000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.048000</v>
+        <v>969.048</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.861200</v>
+        <v>-74.861199999999997</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>72262.186287</v>
+        <v>72262.186287000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.072830</v>
+        <v>20.07283</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.495000</v>
+        <v>976.495</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.530600</v>
+        <v>-79.530600000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>72273.102226</v>
+        <v>72273.102226000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.075862</v>
+        <v>20.075862000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.757000</v>
+        <v>984.75699999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.872700</v>
+        <v>-90.872699999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>72283.958195</v>
+        <v>72283.958194999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.078877</v>
+        <v>20.078876999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.739000</v>
+        <v>994.73900000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.257000</v>
+        <v>-108.25700000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>72295.071160</v>
+        <v>72295.071160000007</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.081964</v>
+        <v>20.081963999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.684000</v>
+        <v>-123.684</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>72306.064358</v>
+        <v>72306.064358000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.085018</v>
+        <v>20.085018000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.359000</v>
+        <v>-194.35900000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>72317.532391</v>
+        <v>72317.532391000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>20.088203</v>
       </c>
       <c r="BK3" s="1">
-        <v>1108.810000</v>
+        <v>1108.81</v>
       </c>
       <c r="BL3" s="1">
-        <v>-308.389000</v>
+        <v>-308.38900000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>72329.129846</v>
+        <v>72329.129845999996</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.091425</v>
+        <v>20.091425000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-487.110000</v>
+        <v>-487.11</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>72341.055128</v>
+        <v>72341.055128000007</v>
       </c>
       <c r="BT3" s="1">
         <v>20.094738</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="BV3" s="1">
-        <v>-682.003000</v>
+        <v>-682.00300000000004</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>72351.832201</v>
+        <v>72351.832200999997</v>
       </c>
       <c r="BY3" s="1">
         <v>20.097731</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.450000</v>
+        <v>1471.45</v>
       </c>
       <c r="CA3" s="1">
-        <v>-889.400000</v>
+        <v>-889.4</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>72363.074026</v>
+        <v>72363.074026000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.100854</v>
+        <v>20.100854000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1819.300000</v>
+        <v>1819.3</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1379.340000</v>
+        <v>-1379.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>72190.239121</v>
+        <v>72190.239121000006</v>
       </c>
       <c r="B4" s="1">
         <v>20.052844</v>
       </c>
       <c r="C4" s="1">
-        <v>902.858000</v>
+        <v>902.85799999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-195.050000</v>
+        <v>-195.05</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>72200.620850</v>
+        <v>72200.620850000007</v>
       </c>
       <c r="G4" s="1">
-        <v>20.055728</v>
+        <v>20.055727999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.742000</v>
+        <v>919.74199999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-165.582000</v>
+        <v>-165.58199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>72211.436650</v>
+        <v>72211.436650000003</v>
       </c>
       <c r="L4" s="1">
-        <v>20.058732</v>
+        <v>20.058731999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>942.694000</v>
+        <v>942.69399999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.542000</v>
+        <v>-118.542</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>72221.670069</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.061575</v>
+        <v>20.061575000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>949.616000</v>
+        <v>949.61599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.794000</v>
+        <v>-102.794</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>72231.945225</v>
+        <v>72231.945225000003</v>
       </c>
       <c r="V4" s="1">
-        <v>20.064429</v>
+        <v>20.064429000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>956.471000</v>
+        <v>956.471</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.379100</v>
+        <v>-88.379099999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>72242.179183</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.067272</v>
+        <v>20.067271999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.080000</v>
+        <v>964.08</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.974600</v>
+        <v>-76.974599999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>72252.367468</v>
+        <v>72252.367467999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.070102</v>
+        <v>20.070101999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.125000</v>
+        <v>969.125</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.931200</v>
+        <v>-74.931200000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>72262.513663</v>
+        <v>72262.513663000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.072920</v>
+        <v>20.07292</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.519000</v>
+        <v>976.51900000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.520900</v>
+        <v>-79.520899999999997</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>72273.460373</v>
+        <v>72273.460372999994</v>
       </c>
       <c r="AP4" s="1">
         <v>20.075961</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.753000</v>
+        <v>984.75300000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.900500</v>
+        <v>-90.900499999999994</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>72284.322084</v>
+        <v>72284.322083999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.078978</v>
+        <v>20.078977999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.712000</v>
+        <v>994.71199999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.258000</v>
+        <v>-108.258</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>72295.429636</v>
+        <v>72295.429636000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.082064</v>
+        <v>20.082063999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.110000</v>
+        <v>1003.11</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.679000</v>
+        <v>-123.679</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>72306.789056</v>
+        <v>72306.789055999994</v>
       </c>
       <c r="BE4" s="1">
-        <v>20.085219</v>
+        <v>20.085218999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.372000</v>
+        <v>-194.37200000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>72317.908823</v>
+        <v>72317.908823000005</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.088308</v>
+        <v>20.088308000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL4" s="1">
-        <v>-308.401000</v>
+        <v>-308.40100000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>72329.548438</v>
+        <v>72329.548437999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.091541</v>
+        <v>20.091540999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-487.089000</v>
+        <v>-487.089</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>72341.485158</v>
+        <v>72341.485157999996</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.094857</v>
+        <v>20.094857000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV4" s="1">
-        <v>-682.084000</v>
+        <v>-682.08399999999995</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>72352.592568</v>
+        <v>72352.592567999993</v>
       </c>
       <c r="BY4" s="1">
         <v>20.097942</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.410000</v>
+        <v>1471.41</v>
       </c>
       <c r="CA4" s="1">
-        <v>-889.392000</v>
+        <v>-889.39200000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>72363.906840</v>
+        <v>72363.906839999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.101085</v>
+        <v>20.101085000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1819.870000</v>
+        <v>1819.87</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1380.440000</v>
+        <v>-1380.44</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>72190.581326</v>
       </c>
       <c r="B5" s="1">
-        <v>20.052939</v>
+        <v>20.052938999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.729000</v>
+        <v>902.72900000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-194.994000</v>
+        <v>-194.994</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72201.012926</v>
+        <v>72201.012925999996</v>
       </c>
       <c r="G5" s="1">
         <v>20.055837</v>
       </c>
       <c r="H5" s="1">
-        <v>919.529000</v>
+        <v>919.529</v>
       </c>
       <c r="I5" s="1">
-        <v>-165.507000</v>
+        <v>-165.50700000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>72211.784802</v>
+        <v>72211.784801999995</v>
       </c>
       <c r="L5" s="1">
-        <v>20.058829</v>
+        <v>20.058828999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>942.599000</v>
+        <v>942.59900000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.344000</v>
+        <v>-118.34399999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>72222.101093</v>
+        <v>72222.101093000005</v>
       </c>
       <c r="Q5" s="1">
         <v>20.061695</v>
       </c>
       <c r="R5" s="1">
-        <v>949.573000</v>
+        <v>949.57299999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.801000</v>
+        <v>-102.801</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>72232.378695</v>
+        <v>72232.378695000007</v>
       </c>
       <c r="V5" s="1">
-        <v>20.064550</v>
+        <v>20.064550000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>956.384000</v>
+        <v>956.38400000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.217600</v>
+        <v>-88.217600000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>72242.473306</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.067354</v>
+        <v>20.067354000000002</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.144000</v>
+        <v>964.14400000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.943900</v>
+        <v>-76.943899999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>72252.711233</v>
+        <v>72252.711232999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.070198</v>
+        <v>20.070198000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.056000</v>
+        <v>969.05600000000004</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.844600</v>
+        <v>-74.8446</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>72262.859345</v>
+        <v>72262.859345000004</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.073016</v>
+        <v>20.073015999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.470000</v>
+        <v>976.47</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.515000</v>
+        <v>-79.515000000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>72273.820928</v>
+        <v>72273.820928000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.076061</v>
+        <v>20.076060999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.763000</v>
+        <v>984.76300000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.902600</v>
+        <v>-90.902600000000007</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>72285.050885</v>
+        <v>72285.050885000004</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.079181</v>
+        <v>20.079180999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.723000</v>
+        <v>994.72299999999996</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.267000</v>
+        <v>-108.267</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>72296.154787</v>
+        <v>72296.154787000007</v>
       </c>
       <c r="AZ5" s="1">
         <v>20.082265</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>72307.178372</v>
+        <v>72307.178371999995</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.085327</v>
+        <v>20.085326999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.365000</v>
+        <v>-194.36500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>72318.305621</v>
+        <v>72318.305621000007</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.088418</v>
+        <v>20.088418000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1108.770000</v>
+        <v>1108.77</v>
       </c>
       <c r="BL5" s="1">
-        <v>-308.368000</v>
+        <v>-308.36799999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>72329.943751</v>
+        <v>72329.943750999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.091651</v>
+        <v>20.091650999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-487.111000</v>
+        <v>-487.11099999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>72342.207334</v>
+        <v>72342.207334000006</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.095058</v>
+        <v>20.095058000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.990000</v>
+        <v>1336.99</v>
       </c>
       <c r="BV5" s="1">
-        <v>-682.180000</v>
+        <v>-682.18</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>72352.726489</v>
+        <v>72352.726488999993</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.097980</v>
+        <v>20.09798</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.450000</v>
+        <v>1471.45</v>
       </c>
       <c r="CA5" s="1">
-        <v>-889.408000</v>
+        <v>-889.40800000000002</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>72364.146377</v>
+        <v>72364.146376999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.101152</v>
+        <v>20.101151999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1820.750000</v>
+        <v>1820.75</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1379.200000</v>
+        <v>-1379.2</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>72190.922080</v>
+        <v>72190.922080000004</v>
       </c>
       <c r="B6" s="1">
         <v>20.053034</v>
       </c>
       <c r="C6" s="1">
-        <v>902.715000</v>
+        <v>902.71500000000003</v>
       </c>
       <c r="D6" s="1">
-        <v>-195.095000</v>
+        <v>-195.095</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>72201.318223</v>
+        <v>72201.318222999995</v>
       </c>
       <c r="G6" s="1">
-        <v>20.055922</v>
+        <v>20.055921999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>919.911000</v>
+        <v>919.91099999999994</v>
       </c>
       <c r="I6" s="1">
-        <v>-165.711000</v>
+        <v>-165.71100000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>72212.221777</v>
+        <v>72212.221776999999</v>
       </c>
       <c r="L6" s="1">
-        <v>20.058950</v>
+        <v>20.058949999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>942.713000</v>
+        <v>942.71299999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.306000</v>
+        <v>-118.306</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>72222.366948</v>
+        <v>72222.366947999995</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.061769</v>
+        <v>20.061769000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>949.573000</v>
+        <v>949.57299999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.771000</v>
+        <v>-102.771</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>72232.660136</v>
+        <v>72232.660136000006</v>
       </c>
       <c r="V6" s="1">
-        <v>20.064628</v>
+        <v>20.064627999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>956.562000</v>
+        <v>956.56200000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.239600</v>
+        <v>-88.239599999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>72242.821497</v>
+        <v>72242.821496999997</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.067450</v>
+        <v>20.067450000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.061000</v>
+        <v>964.06100000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.958800</v>
+        <v>-76.958799999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>72253.053931</v>
+        <v>72253.053931000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.070293</v>
+        <v>20.070292999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.004000</v>
+        <v>969.00400000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.847700</v>
+        <v>-74.847700000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72263.207425</v>
+        <v>72263.207425000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.073113</v>
+        <v>20.073112999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.483000</v>
+        <v>976.48299999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.507300</v>
+        <v>-79.507300000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>72274.540624</v>
+        <v>72274.540624000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.076261</v>
+        <v>20.076260999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.767000</v>
+        <v>984.76700000000005</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.905400</v>
+        <v>-90.9054</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>72285.445664</v>
+        <v>72285.445663999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.079290</v>
+        <v>20.07929</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.748000</v>
+        <v>994.74800000000005</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.275000</v>
+        <v>-108.27500000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>72296.532739</v>
+        <v>72296.532739000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.082370</v>
+        <v>20.082370000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.699000</v>
+        <v>-123.699</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>72307.539459</v>
+        <v>72307.539459000007</v>
       </c>
       <c r="BE6" s="1">
         <v>20.085428</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.369000</v>
+        <v>-194.369</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>72319.004021</v>
+        <v>72319.004021000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>20.088612</v>
+        <v>20.088612000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1108.760000</v>
+        <v>1108.76</v>
       </c>
       <c r="BL6" s="1">
-        <v>-308.397000</v>
+        <v>-308.39699999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>72330.689280</v>
+        <v>72330.689280000006</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.091858</v>
+        <v>20.091857999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1216.590000</v>
+        <v>1216.5899999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-487.068000</v>
+        <v>-487.06799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>72342.328389</v>
+        <v>72342.328389000002</v>
       </c>
       <c r="BT6" s="1">
         <v>20.095091</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV6" s="1">
-        <v>-682.251000</v>
+        <v>-682.25099999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>72353.149325</v>
+        <v>72353.149325000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>20.098097</v>
+        <v>20.098096999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.410000</v>
+        <v>1471.41</v>
       </c>
       <c r="CA6" s="1">
-        <v>-889.390000</v>
+        <v>-889.39</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>72364.679080</v>
+        <v>72364.679080000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.101300</v>
+        <v>20.101299999999998</v>
       </c>
       <c r="CE6" s="1">
-        <v>1819.090000</v>
+        <v>1819.09</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1379.730000</v>
+        <v>-1379.73</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>72191.358061</v>
+        <v>72191.358061000006</v>
       </c>
       <c r="B7" s="1">
         <v>20.053155</v>
       </c>
       <c r="C7" s="1">
-        <v>902.822000</v>
+        <v>902.822</v>
       </c>
       <c r="D7" s="1">
-        <v>-194.945000</v>
+        <v>-194.94499999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>72202.006211</v>
@@ -1781,300 +2197,300 @@
         <v>20.056113</v>
       </c>
       <c r="H7" s="1">
-        <v>919.785000</v>
+        <v>919.78499999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-165.218000</v>
+        <v>-165.21799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>72212.492593</v>
+        <v>72212.492593000003</v>
       </c>
       <c r="L7" s="1">
-        <v>20.059026</v>
+        <v>20.059025999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.631000</v>
+        <v>942.63099999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.408000</v>
+        <v>-118.408</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>72222.716627</v>
+        <v>72222.716627000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.061866</v>
+        <v>20.061865999999998</v>
       </c>
       <c r="R7" s="1">
-        <v>949.608000</v>
+        <v>949.60799999999995</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.774000</v>
+        <v>-102.774</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>72233.002200</v>
+        <v>72233.002200000003</v>
       </c>
       <c r="V7" s="1">
-        <v>20.064723</v>
+        <v>20.064723000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>956.356000</v>
+        <v>956.35599999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.275500</v>
+        <v>-88.275499999999994</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>72243.168169</v>
+        <v>72243.168168999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.067547</v>
+        <v>20.067547000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.040000</v>
+        <v>964.04</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.024500</v>
+        <v>-77.024500000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>72253.742875</v>
+        <v>72253.742874999996</v>
       </c>
       <c r="AF7" s="1">
         <v>20.070484</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.092000</v>
+        <v>969.09199999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.820300</v>
+        <v>-74.820300000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>72263.905406</v>
+        <v>72263.905406000005</v>
       </c>
       <c r="AK7" s="1">
         <v>20.073307</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.505000</v>
+        <v>976.505</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.510500</v>
+        <v>-79.510499999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>72274.899230</v>
+        <v>72274.899229999995</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.076361</v>
+        <v>20.076360999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.767000</v>
+        <v>984.76700000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.871300</v>
+        <v>-90.871300000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>72285.810224</v>
+        <v>72285.810224000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.079392</v>
+        <v>20.079391999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.731000</v>
+        <v>994.73099999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.273000</v>
+        <v>-108.273</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>72296.912179</v>
+        <v>72296.912179000006</v>
       </c>
       <c r="AZ7" s="1">
         <v>20.082476</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.708000</v>
+        <v>-123.708</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>72308.212074</v>
+        <v>72308.212073999995</v>
       </c>
       <c r="BE7" s="1">
         <v>20.085614</v>
       </c>
       <c r="BF7" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.382000</v>
+        <v>-194.38200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>72319.460805</v>
+        <v>72319.460804999995</v>
       </c>
       <c r="BJ7" s="1">
         <v>20.088739</v>
       </c>
       <c r="BK7" s="1">
-        <v>1108.790000</v>
+        <v>1108.79</v>
       </c>
       <c r="BL7" s="1">
-        <v>-308.402000</v>
+        <v>-308.40199999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>72331.185732</v>
+        <v>72331.185731999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.091996</v>
+        <v>20.091996000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-487.109000</v>
+        <v>-487.10899999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>72342.769797</v>
+        <v>72342.769797000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.095214</v>
+        <v>20.095213999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.960000</v>
+        <v>1336.96</v>
       </c>
       <c r="BV7" s="1">
-        <v>-682.364000</v>
+        <v>-682.36400000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>72353.576135</v>
+        <v>72353.576134999996</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.098216</v>
+        <v>20.098216000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.420000</v>
+        <v>1471.42</v>
       </c>
       <c r="CA7" s="1">
-        <v>-889.459000</v>
+        <v>-889.45899999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>72365.217735</v>
+        <v>72365.217734999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.101449</v>
+        <v>20.101448999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1820.720000</v>
+        <v>1820.72</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1379.930000</v>
+        <v>-1379.93</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>72191.639292</v>
+        <v>72191.639292000007</v>
       </c>
       <c r="B8" s="1">
-        <v>20.053233</v>
+        <v>20.053232999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.837000</v>
+        <v>902.83699999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-195.075000</v>
+        <v>-195.07499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>72202.349905</v>
+        <v>72202.349904999995</v>
       </c>
       <c r="G8" s="1">
-        <v>20.056208</v>
+        <v>20.056208000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>919.967000</v>
+        <v>919.96699999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-165.618000</v>
+        <v>-165.61799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>72212.839824</v>
+        <v>72212.839823999995</v>
       </c>
       <c r="L8" s="1">
-        <v>20.059122</v>
+        <v>20.059121999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>942.798000</v>
+        <v>942.798</v>
       </c>
       <c r="N8" s="1">
-        <v>-118.362000</v>
+        <v>-118.36199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>72223.067795</v>
+        <v>72223.067794999995</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.061963</v>
+        <v>20.061962999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>949.642000</v>
+        <v>949.64200000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.805000</v>
+        <v>-102.80500000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>72233.349403</v>
@@ -2083,799 +2499,799 @@
         <v>20.064819</v>
       </c>
       <c r="W8" s="1">
-        <v>956.555000</v>
+        <v>956.55499999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.331700</v>
+        <v>-88.331699999999998</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>72243.865544</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.067740</v>
+        <v>20.067740000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.081000</v>
+        <v>964.08100000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.087100</v>
+        <v>-77.087100000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>72254.084650</v>
+        <v>72254.084650000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.070579</v>
+        <v>20.070578999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.003000</v>
+        <v>969.00300000000004</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.915600</v>
+        <v>-74.915599999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>72264.255085</v>
+        <v>72264.255084999997</v>
       </c>
       <c r="AK8" s="1">
         <v>20.073404</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.499000</v>
+        <v>976.49900000000002</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.496500</v>
+        <v>-79.496499999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>72275.263295</v>
+        <v>72275.263294999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.076462</v>
+        <v>20.076461999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.767000</v>
+        <v>984.76700000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.895400</v>
+        <v>-90.895399999999995</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>72286.501151</v>
+        <v>72286.501151000004</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.079584</v>
+        <v>20.079584000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.728000</v>
+        <v>994.72799999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.254000</v>
+        <v>-108.254</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>72297.590240</v>
+        <v>72297.590240000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.082664</v>
+        <v>20.082664000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>72308.647522</v>
+        <v>72308.647521999999</v>
       </c>
       <c r="BE8" s="1">
         <v>20.085735</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.367000</v>
+        <v>-194.36699999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>72319.843747</v>
+        <v>72319.843747000006</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.088845</v>
+        <v>20.088844999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL8" s="1">
-        <v>-308.386000</v>
+        <v>-308.38600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>72331.608325</v>
+        <v>72331.608324999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.092113</v>
+        <v>20.092113000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1216.580000</v>
+        <v>1216.58</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-487.091000</v>
+        <v>-487.09100000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>72343.194372</v>
+        <v>72343.194371999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.095332</v>
+        <v>20.095331999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.000000</v>
+        <v>1337</v>
       </c>
       <c r="BV8" s="1">
-        <v>-682.403000</v>
+        <v>-682.40300000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>72354.021046</v>
+        <v>72354.021045999994</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.098339</v>
+        <v>20.098338999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA8" s="1">
-        <v>-889.497000</v>
+        <v>-889.49699999999996</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>72365.757895</v>
+        <v>72365.757895000002</v>
       </c>
       <c r="CD8" s="1">
         <v>20.101599</v>
       </c>
       <c r="CE8" s="1">
-        <v>1819.930000</v>
+        <v>1819.93</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1378.800000</v>
+        <v>-1378.8</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>72191.977068</v>
+        <v>72191.977067999993</v>
       </c>
       <c r="B9" s="1">
-        <v>20.053327</v>
+        <v>20.053326999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>902.850000</v>
+        <v>902.85</v>
       </c>
       <c r="D9" s="1">
-        <v>-195.015000</v>
+        <v>-195.01499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>72202.694622</v>
+        <v>72202.694621999995</v>
       </c>
       <c r="G9" s="1">
-        <v>20.056304</v>
+        <v>20.056304000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>919.629000</v>
+        <v>919.62900000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-165.473000</v>
+        <v>-165.47300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>72213.188976</v>
+        <v>72213.188976000005</v>
       </c>
       <c r="L9" s="1">
-        <v>20.059219</v>
+        <v>20.059218999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>942.733000</v>
+        <v>942.73299999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.409000</v>
+        <v>-118.40900000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>72223.762690</v>
+        <v>72223.762690000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.062156</v>
+        <v>20.062156000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>949.614000</v>
+        <v>949.61400000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.816000</v>
+        <v>-102.816</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>72234.044756</v>
+        <v>72234.044756000003</v>
       </c>
       <c r="V9" s="1">
-        <v>20.065012</v>
+        <v>20.065011999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>956.585000</v>
+        <v>956.58500000000004</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.238500</v>
+        <v>-88.238500000000002</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>72244.215719</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.067838</v>
+        <v>20.067837999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.133000</v>
+        <v>964.13300000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.902900</v>
+        <v>-76.902900000000002</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>72254.430329</v>
+        <v>72254.430328999995</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.070675</v>
+        <v>20.070675000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.019000</v>
+        <v>969.01900000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.851200</v>
+        <v>-74.851200000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>72264.601326</v>
+        <v>72264.601326000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.073500</v>
+        <v>20.073499999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.494000</v>
+        <v>976.49400000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.521500</v>
+        <v>-79.521500000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>72275.941327</v>
+        <v>72275.941326999993</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.076650</v>
+        <v>20.076650000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.773000</v>
+        <v>984.77300000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.896700</v>
+        <v>-90.896699999999996</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>72286.902920</v>
+        <v>72286.902919999993</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.079695</v>
+        <v>20.079695000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.729000</v>
+        <v>994.72900000000004</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.273000</v>
+        <v>-108.273</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>72297.993456</v>
+        <v>72297.993455999997</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.082776</v>
+        <v>20.082775999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.710000</v>
+        <v>-123.71</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>72309.000673</v>
+        <v>72309.000673000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.085834</v>
+        <v>20.085833999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.367000</v>
+        <v>-194.36699999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>72320.210291</v>
+        <v>72320.210290999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.088947</v>
+        <v>20.088947000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1108.760000</v>
+        <v>1108.76</v>
       </c>
       <c r="BL9" s="1">
-        <v>-308.394000</v>
+        <v>-308.39400000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>72332.000659</v>
+        <v>72332.000658999998</v>
       </c>
       <c r="BO9" s="1">
         <v>20.092222</v>
       </c>
       <c r="BP9" s="1">
-        <v>1216.590000</v>
+        <v>1216.5899999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-487.108000</v>
+        <v>-487.108</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>72343.622916</v>
+        <v>72343.622915999993</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.095451</v>
+        <v>20.095451000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.010000</v>
+        <v>1337.01</v>
       </c>
       <c r="BV9" s="1">
-        <v>-682.477000</v>
+        <v>-682.47699999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>72354.438181</v>
+        <v>72354.438181000005</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.098455</v>
+        <v>20.098455000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.400000</v>
+        <v>1471.4</v>
       </c>
       <c r="CA9" s="1">
-        <v>-889.571000</v>
+        <v>-889.57100000000003</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>72366.300007</v>
+        <v>72366.300006999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.101750</v>
+        <v>20.101749999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1820.000000</v>
+        <v>1820</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1380.490000</v>
+        <v>-1380.49</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>72192.318316</v>
+        <v>72192.318316000004</v>
       </c>
       <c r="B10" s="1">
-        <v>20.053422</v>
+        <v>20.053422000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>902.759000</v>
+        <v>902.75900000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-195.097000</v>
+        <v>-195.09700000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>72203.383566</v>
+        <v>72203.383566000004</v>
       </c>
       <c r="G10" s="1">
-        <v>20.056495</v>
+        <v>20.056495000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>919.913000</v>
+        <v>919.91300000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-165.242000</v>
+        <v>-165.24199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>72213.879935</v>
+        <v>72213.879935000004</v>
       </c>
       <c r="L10" s="1">
-        <v>20.059411</v>
+        <v>20.059411000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>942.694000</v>
+        <v>942.69399999999996</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.372000</v>
+        <v>-118.372</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>72224.112370</v>
+        <v>72224.112370000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>20.062253</v>
+        <v>20.062252999999998</v>
       </c>
       <c r="R10" s="1">
-        <v>949.627000</v>
+        <v>949.62699999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.861000</v>
+        <v>-102.861</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>72234.386996</v>
+        <v>72234.386996000001</v>
       </c>
       <c r="V10" s="1">
-        <v>20.065107</v>
+        <v>20.065107000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>956.613000</v>
+        <v>956.61300000000006</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.174400</v>
+        <v>-88.174400000000006</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>72244.563416</v>
+        <v>72244.563416000005</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.067934</v>
+        <v>20.067934000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.067000</v>
+        <v>964.06700000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.041800</v>
+        <v>-77.041799999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>72255.091496</v>
+        <v>72255.091495999994</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.070859</v>
+        <v>20.070858999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.008000</v>
+        <v>969.00800000000004</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.865900</v>
+        <v>-74.865899999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>72265.269403</v>
+        <v>72265.269402999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.073686</v>
+        <v>20.073685999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.536000</v>
+        <v>976.53599999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.527700</v>
+        <v>-79.527699999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>72276.363916</v>
+        <v>72276.363916000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.076768</v>
+        <v>20.076768000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.751000</v>
+        <v>984.75099999999998</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.898500</v>
+        <v>-90.898499999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>72287.298254</v>
+        <v>72287.298253999994</v>
       </c>
       <c r="AU10" s="1">
         <v>20.079805</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.741000</v>
+        <v>994.74099999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>72298.367935</v>
+        <v>72298.367935000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.082880</v>
+        <v>20.082879999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.686000</v>
+        <v>-123.68600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>72309.371185</v>
+        <v>72309.371184999996</v>
       </c>
       <c r="BE10" s="1">
         <v>20.085936</v>
       </c>
       <c r="BF10" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.364000</v>
+        <v>-194.364</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>72320.643763</v>
       </c>
       <c r="BJ10" s="1">
-        <v>20.089068</v>
+        <v>20.089068000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1108.760000</v>
+        <v>1108.76</v>
       </c>
       <c r="BL10" s="1">
-        <v>-308.388000</v>
+        <v>-308.38799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>72332.500131</v>
+        <v>72332.500130999993</v>
       </c>
       <c r="BO10" s="1">
         <v>20.092361</v>
       </c>
       <c r="BP10" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-487.075000</v>
+        <v>-487.07499999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>72344.038563</v>
+        <v>72344.038562999995</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.095566</v>
+        <v>20.095566000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.080000</v>
+        <v>1337.08</v>
       </c>
       <c r="BV10" s="1">
-        <v>-682.548000</v>
+        <v>-682.548</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>72354.861766</v>
+        <v>72354.861766000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.098573</v>
+        <v>20.098572999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.420000</v>
+        <v>1471.42</v>
       </c>
       <c r="CA10" s="1">
-        <v>-889.526000</v>
+        <v>-889.52599999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>72366.837173</v>
+        <v>72366.837173000007</v>
       </c>
       <c r="CD10" s="1">
         <v>20.101899</v>
       </c>
       <c r="CE10" s="1">
-        <v>1820.680000</v>
+        <v>1820.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1378.760000</v>
+        <v>-1378.76</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>72193.004779</v>
+        <v>72193.004778999995</v>
       </c>
       <c r="B11" s="1">
-        <v>20.053612</v>
+        <v>20.053612000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>902.773000</v>
+        <v>902.77300000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-195.110000</v>
+        <v>-195.11</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>72203.727293</v>
+        <v>72203.727293000004</v>
       </c>
       <c r="G11" s="1">
-        <v>20.056591</v>
+        <v>20.056591000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.680000</v>
+        <v>919.68</v>
       </c>
       <c r="I11" s="1">
-        <v>-165.298000</v>
+        <v>-165.298</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>72214.225615</v>
+        <v>72214.225615000003</v>
       </c>
       <c r="L11" s="1">
         <v>20.059507</v>
       </c>
       <c r="M11" s="1">
-        <v>942.678000</v>
+        <v>942.678</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.529000</v>
+        <v>-118.529</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>72224.460787</v>
+        <v>72224.460787000004</v>
       </c>
       <c r="Q11" s="1">
-        <v>20.062350</v>
+        <v>20.062349999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>949.581000</v>
+        <v>949.58100000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>72235.042707</v>
+        <v>72235.042707000001</v>
       </c>
       <c r="V11" s="1">
-        <v>20.065290</v>
+        <v>20.065290000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>956.429000</v>
+        <v>956.42899999999997</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.252700</v>
+        <v>-88.252700000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>72245.226604</v>
+        <v>72245.226603999996</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.068119</v>
+        <v>20.068118999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.019000</v>
+        <v>964.01900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.041100</v>
+        <v>-77.0411</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>72255.460024</v>
@@ -2884,88 +3300,88 @@
         <v>20.070961</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.123000</v>
+        <v>969.12300000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.895700</v>
+        <v>-74.895700000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>72265.649339</v>
+        <v>72265.649338999996</v>
       </c>
       <c r="AK11" s="1">
         <v>20.073791</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.484000</v>
+        <v>976.48400000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.533800</v>
+        <v>-79.533799999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>72276.724525</v>
+        <v>72276.724524999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.076868</v>
+        <v>20.076868000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.748000</v>
+        <v>984.74800000000005</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.877700</v>
+        <v>-90.877700000000004</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>72287.660301</v>
+        <v>72287.660300999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.079906</v>
+        <v>20.079906000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.749000</v>
+        <v>994.74900000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.273000</v>
+        <v>-108.273</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>72298.750849</v>
+        <v>72298.750849000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.082986</v>
+        <v>20.082985999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.090000</v>
+        <v>1003.09</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.687000</v>
+        <v>-123.687</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>72309.801216</v>
+        <v>72309.801216000007</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.086056</v>
+        <v>20.086055999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.371000</v>
+        <v>-194.37100000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>72320.989017</v>
@@ -2974,3930 +3390,3931 @@
         <v>20.089164</v>
       </c>
       <c r="BK11" s="1">
-        <v>1108.800000</v>
+        <v>1108.8</v>
       </c>
       <c r="BL11" s="1">
-        <v>-308.419000</v>
+        <v>-308.41899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>72332.818563</v>
+        <v>72332.818562999993</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.092450</v>
+        <v>20.092449999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-487.108000</v>
+        <v>-487.108</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>72344.466769</v>
+        <v>72344.466769000006</v>
       </c>
       <c r="BT11" s="1">
         <v>20.095685</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.220000</v>
+        <v>1337.22</v>
       </c>
       <c r="BV11" s="1">
-        <v>-682.546000</v>
+        <v>-682.54600000000005</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>72355.285349</v>
+        <v>72355.285348999998</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.098690</v>
+        <v>20.098690000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.420000</v>
+        <v>1471.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-889.398000</v>
+        <v>-889.39800000000002</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>72367.378806</v>
+        <v>72367.378805999993</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.102050</v>
+        <v>20.102049999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1819.430000</v>
+        <v>1819.43</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1379.890000</v>
+        <v>-1379.89</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>72193.347514</v>
+        <v>72193.347513999994</v>
       </c>
       <c r="B12" s="1">
         <v>20.053708</v>
       </c>
       <c r="C12" s="1">
-        <v>902.795000</v>
+        <v>902.79499999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-195.167000</v>
+        <v>-195.167</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>72204.073500</v>
+        <v>72204.073499999999</v>
       </c>
       <c r="G12" s="1">
         <v>20.056687</v>
       </c>
       <c r="H12" s="1">
-        <v>919.721000</v>
+        <v>919.721</v>
       </c>
       <c r="I12" s="1">
-        <v>-165.346000</v>
+        <v>-165.346</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>72214.571326</v>
+        <v>72214.571326000005</v>
       </c>
       <c r="L12" s="1">
-        <v>20.059603</v>
+        <v>20.059602999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>942.706000</v>
+        <v>942.70600000000002</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.470000</v>
+        <v>-118.47</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>72225.124741</v>
+        <v>72225.124741000007</v>
       </c>
       <c r="Q12" s="1">
         <v>20.062535</v>
       </c>
       <c r="R12" s="1">
-        <v>949.631000</v>
+        <v>949.63099999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.760000</v>
+        <v>-102.76</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>72235.421650</v>
+        <v>72235.421650000004</v>
       </c>
       <c r="V12" s="1">
-        <v>20.065395</v>
+        <v>20.065394999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>956.528000</v>
+        <v>956.52800000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.345700</v>
+        <v>-88.345699999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>72245.610006</v>
+        <v>72245.610006000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>20.068225</v>
+        <v>20.068225000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.157000</v>
+        <v>964.15700000000004</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.063200</v>
+        <v>-77.063199999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>72255.803752</v>
+        <v>72255.803752000007</v>
       </c>
       <c r="AF12" s="1">
         <v>20.071057</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.859000</v>
+        <v>968.85900000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.005900</v>
+        <v>-75.005899999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>72266.001002</v>
+        <v>72266.001002000005</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.073889</v>
+        <v>20.073889000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.522000</v>
+        <v>976.52200000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.517100</v>
+        <v>-79.517099999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>72277.086092</v>
+        <v>72277.086091999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.076968</v>
+        <v>20.076968000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.750000</v>
+        <v>984.75</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.874700</v>
+        <v>-90.874700000000004</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>72288.085869</v>
+        <v>72288.085869000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.080024</v>
+        <v>20.080024000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.724000</v>
+        <v>994.72400000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.259000</v>
+        <v>-108.259</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>72299.193774</v>
+        <v>72299.193773999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>20.083109</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>72310.093857</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.086137</v>
+        <v>20.086137000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.375000</v>
+        <v>-194.375</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>72321.365441</v>
+        <v>72321.365441000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.089268</v>
+        <v>20.089268000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1108.770000</v>
+        <v>1108.77</v>
       </c>
       <c r="BL12" s="1">
-        <v>-308.388000</v>
+        <v>-308.38799999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>72333.238673</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.092566</v>
+        <v>20.092566000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1216.570000</v>
+        <v>1216.57</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-487.106000</v>
+        <v>-487.10599999999999</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>72344.875810</v>
+        <v>72344.875809999998</v>
       </c>
       <c r="BT12" s="1">
         <v>20.095799</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.240000</v>
+        <v>1337.24</v>
       </c>
       <c r="BV12" s="1">
-        <v>-682.564000</v>
+        <v>-682.56399999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>72355.734725</v>
+        <v>72355.734725000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.098815</v>
+        <v>20.098814999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.500000</v>
+        <v>1471.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-889.421000</v>
+        <v>-889.42100000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>72367.918452</v>
+        <v>72367.918451999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.102200</v>
+        <v>20.1022</v>
       </c>
       <c r="CE12" s="1">
-        <v>1820.870000</v>
+        <v>1820.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1379.700000</v>
+        <v>-1379.7</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>72193.687802</v>
       </c>
       <c r="B13" s="1">
-        <v>20.053802</v>
+        <v>20.053802000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>902.870000</v>
+        <v>902.87</v>
       </c>
       <c r="D13" s="1">
-        <v>-195.002000</v>
+        <v>-195.00200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72204.762687</v>
+        <v>72204.762686999995</v>
       </c>
       <c r="G13" s="1">
-        <v>20.056879</v>
+        <v>20.056878999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>919.781000</v>
+        <v>919.78099999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-165.833000</v>
+        <v>-165.833</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>72215.231997</v>
+        <v>72215.231996999995</v>
       </c>
       <c r="L13" s="1">
         <v>20.059787</v>
       </c>
       <c r="M13" s="1">
-        <v>942.538000</v>
+        <v>942.53800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.591000</v>
+        <v>-118.59099999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>72225.506128</v>
+        <v>72225.506127999994</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.062641</v>
+        <v>20.062640999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>949.640000</v>
+        <v>949.64</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.761000</v>
+        <v>-102.761</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>72235.767363</v>
+        <v>72235.767363000006</v>
       </c>
       <c r="V13" s="1">
-        <v>20.065491</v>
+        <v>20.065491000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>956.439000</v>
+        <v>956.43899999999996</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.302400</v>
+        <v>-88.302400000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>72245.958165</v>
+        <v>72245.958165000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>20.068322</v>
+        <v>20.068321999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.055000</v>
+        <v>964.05499999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.083500</v>
+        <v>-77.083500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>72256.147976</v>
+        <v>72256.147975999993</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.071152</v>
+        <v>20.071152000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.930000</v>
+        <v>968.93</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.861300</v>
+        <v>-74.8613</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>72266.351177</v>
+        <v>72266.351177000004</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.073986</v>
+        <v>20.073986000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.520000</v>
+        <v>976.52</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.506700</v>
+        <v>-79.506699999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>72277.530507</v>
+        <v>72277.530507000003</v>
       </c>
       <c r="AP13" s="1">
         <v>20.077092</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.757000</v>
+        <v>984.75699999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.891600</v>
+        <v>-90.891599999999997</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>72288.381485</v>
+        <v>72288.381485000005</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.080106</v>
+        <v>20.080106000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.728000</v>
+        <v>994.72799999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.260000</v>
+        <v>-108.26</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>72299.467566</v>
+        <v>72299.467566000007</v>
       </c>
       <c r="AZ13" s="1">
         <v>20.083185</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.090000</v>
+        <v>1003.09</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.707000</v>
+        <v>-123.70699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>72310.457919</v>
+        <v>72310.457918999993</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.086238</v>
+        <v>20.086238000000002</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.372000</v>
+        <v>-194.37200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>72321.739953</v>
+        <v>72321.739952999997</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.089372</v>
+        <v>20.089372000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1108.800000</v>
+        <v>1108.8</v>
       </c>
       <c r="BL13" s="1">
-        <v>-308.391000</v>
+        <v>-308.39100000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>72334.065516</v>
+        <v>72334.065516000002</v>
       </c>
       <c r="BO13" s="1">
         <v>20.092796</v>
       </c>
       <c r="BP13" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-487.113000</v>
+        <v>-487.113</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>72345.310305</v>
+        <v>72345.310305000006</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.095920</v>
+        <v>20.09592</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.340000</v>
+        <v>1337.34</v>
       </c>
       <c r="BV13" s="1">
-        <v>-682.556000</v>
+        <v>-682.55600000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>72356.163267</v>
+        <v>72356.163266999996</v>
       </c>
       <c r="BY13" s="1">
         <v>20.098934</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.490000</v>
+        <v>1471.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-889.428000</v>
+        <v>-889.428</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>72368.457107</v>
+        <v>72368.457106999995</v>
       </c>
       <c r="CD13" s="1">
         <v>20.102349</v>
       </c>
       <c r="CE13" s="1">
-        <v>1819.940000</v>
+        <v>1819.94</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1378.940000</v>
+        <v>-1378.94</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>72194.349929</v>
+        <v>72194.349929000004</v>
       </c>
       <c r="B14" s="1">
-        <v>20.053986</v>
+        <v>20.053985999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>902.722000</v>
+        <v>902.72199999999998</v>
       </c>
       <c r="D14" s="1">
-        <v>-194.923000</v>
+        <v>-194.923</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72205.110170</v>
+        <v>72205.11017</v>
       </c>
       <c r="G14" s="1">
-        <v>20.056975</v>
+        <v>20.056975000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>920.099000</v>
+        <v>920.09900000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-165.789000</v>
+        <v>-165.78899999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>72215.609486</v>
+        <v>72215.609486000001</v>
       </c>
       <c r="L14" s="1">
-        <v>20.059892</v>
+        <v>20.059892000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.654000</v>
+        <v>942.654</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.533000</v>
+        <v>-118.533</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>72225.866255</v>
+        <v>72225.866255000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.062741</v>
+        <v>20.062740999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>949.647000</v>
+        <v>949.64700000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.838000</v>
+        <v>-102.83799999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>72236.112615</v>
+        <v>72236.112615000005</v>
       </c>
       <c r="V14" s="1">
-        <v>20.065587</v>
+        <v>20.065587000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>956.425000</v>
+        <v>956.42499999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.272400</v>
+        <v>-88.272400000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>72246.304868</v>
+        <v>72246.304868000007</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.068418</v>
+        <v>20.068418000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.990000</v>
+        <v>963.99</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.938300</v>
+        <v>-76.938299999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>72256.572055</v>
+        <v>72256.572054999997</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.071270</v>
+        <v>20.071269999999998</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.992000</v>
+        <v>968.99199999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.972700</v>
+        <v>-74.972700000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72267.047593</v>
+        <v>72267.047592999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.074180</v>
+        <v>20.074179999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.505000</v>
+        <v>976.505</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.515400</v>
+        <v>-79.5154</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>72277.808764</v>
+        <v>72277.808764000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.077169</v>
+        <v>20.077169000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.767000</v>
+        <v>984.76700000000005</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.884300</v>
+        <v>-90.884299999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>72288.757985</v>
+        <v>72288.757985000004</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.080211</v>
+        <v>20.080210999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.730000</v>
+        <v>994.73</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.255000</v>
+        <v>-108.255</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>72299.862418</v>
+        <v>72299.862418000004</v>
       </c>
       <c r="AZ14" s="1">
         <v>20.083295</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.685000</v>
+        <v>-123.685</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>72310.817551</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.086338</v>
+        <v>20.086338000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.010000</v>
+        <v>1042.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.352000</v>
+        <v>-194.352</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>72322.509215</v>
+        <v>72322.509214999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.089586</v>
+        <v>20.089586000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-308.396000</v>
+        <v>-308.39600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>72334.474208</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.092910</v>
+        <v>20.09291</v>
       </c>
       <c r="BP14" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-487.114000</v>
+        <v>-487.11399999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>72345.736866</v>
+        <v>72345.736866000007</v>
       </c>
       <c r="BT14" s="1">
         <v>20.096038</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.380000</v>
+        <v>1337.38</v>
       </c>
       <c r="BV14" s="1">
-        <v>-682.511000</v>
+        <v>-682.51099999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>72356.585362</v>
+        <v>72356.585361999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.099051</v>
+        <v>20.099050999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.420000</v>
+        <v>1471.42</v>
       </c>
       <c r="CA14" s="1">
-        <v>-889.430000</v>
+        <v>-889.43</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>72369.319650</v>
+        <v>72369.319650000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>20.102589</v>
+        <v>20.102588999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>1821.100000</v>
+        <v>1821.1</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1379.620000</v>
+        <v>-1379.62</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>72194.711053</v>
+        <v>72194.711053000006</v>
       </c>
       <c r="B15" s="1">
-        <v>20.054086</v>
+        <v>20.054086000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>902.784000</v>
+        <v>902.78399999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-195.093000</v>
+        <v>-195.09299999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>72205.459818</v>
+        <v>72205.459818000003</v>
       </c>
       <c r="G15" s="1">
-        <v>20.057072</v>
+        <v>20.057072000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>919.647000</v>
+        <v>919.64700000000005</v>
       </c>
       <c r="I15" s="1">
-        <v>-165.323000</v>
+        <v>-165.32300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>72215.954173</v>
+        <v>72215.954173000006</v>
       </c>
       <c r="L15" s="1">
         <v>20.059987</v>
       </c>
       <c r="M15" s="1">
-        <v>942.668000</v>
+        <v>942.66800000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.381000</v>
+        <v>-118.381</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>72226.208959</v>
+        <v>72226.208958999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.062836</v>
+        <v>20.062836000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>949.603000</v>
+        <v>949.60299999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.840000</v>
+        <v>-102.84</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>72236.550578</v>
+        <v>72236.550577999995</v>
       </c>
       <c r="V15" s="1">
-        <v>20.065708</v>
+        <v>20.065708000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>956.504000</v>
+        <v>956.50400000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.211800</v>
+        <v>-88.211799999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>72246.735434</v>
+        <v>72246.735434000002</v>
       </c>
       <c r="AA15" s="1">
         <v>20.068538</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.056000</v>
+        <v>964.05600000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.013300</v>
+        <v>-77.013300000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>72256.846377</v>
+        <v>72256.846376999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.071346</v>
+        <v>20.071345999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.811000</v>
+        <v>968.81100000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.910200</v>
+        <v>-74.910200000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>72267.394762</v>
+        <v>72267.394761999996</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.074276</v>
+        <v>20.074276000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.505000</v>
+        <v>976.505</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.501700</v>
+        <v>-79.5017</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>72278.164426</v>
+        <v>72278.164426000003</v>
       </c>
       <c r="AP15" s="1">
         <v>20.077268</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.750000</v>
+        <v>984.75</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.907300</v>
+        <v>-90.907300000000006</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>72289.120028</v>
+        <v>72289.120028000005</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.080311</v>
+        <v>20.080310999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.743000</v>
+        <v>994.74300000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.266000</v>
+        <v>-108.26600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>72300.553310</v>
+        <v>72300.553310000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.083487</v>
+        <v>20.083487000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.696000</v>
+        <v>-123.696</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>72311.539198</v>
+        <v>72311.539197999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.086539</v>
+        <v>20.086538999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.020000</v>
+        <v>1042.02</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.364000</v>
+        <v>-194.364</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>72322.883201</v>
+        <v>72322.883201000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.089690</v>
+        <v>20.089690000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1108.790000</v>
+        <v>1108.79</v>
       </c>
       <c r="BL15" s="1">
-        <v>-308.404000</v>
+        <v>-308.404</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>72334.872495</v>
+        <v>72334.872495000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.093020</v>
+        <v>20.093019999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-487.113000</v>
+        <v>-487.113</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>72346.149040</v>
+        <v>72346.149040000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.096153</v>
+        <v>20.096153000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.450000</v>
+        <v>1337.45</v>
       </c>
       <c r="BV15" s="1">
-        <v>-682.395000</v>
+        <v>-682.39499999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>72357.346225</v>
+        <v>72357.346225000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.099263</v>
+        <v>20.099263000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="CA15" s="1">
-        <v>-889.453000</v>
+        <v>-889.45299999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>72369.533954</v>
+        <v>72369.533953999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.102648</v>
+        <v>20.102647999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1820.850000</v>
+        <v>1820.85</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1379.540000</v>
+        <v>-1379.54</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>72195.054744</v>
+        <v>72195.054743999994</v>
       </c>
       <c r="B16" s="1">
-        <v>20.054182</v>
+        <v>20.054182000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.821000</v>
+        <v>902.82100000000003</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.871000</v>
+        <v>-194.87100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>72205.802554</v>
+        <v>72205.802553999994</v>
       </c>
       <c r="G16" s="1">
         <v>20.057167</v>
       </c>
       <c r="H16" s="1">
-        <v>920.013000</v>
+        <v>920.01300000000003</v>
       </c>
       <c r="I16" s="1">
-        <v>-165.486000</v>
+        <v>-165.48599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>72216.300412</v>
+        <v>72216.300411999997</v>
       </c>
       <c r="L16" s="1">
-        <v>20.060083</v>
+        <v>20.060082999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>942.778000</v>
+        <v>942.77800000000002</v>
       </c>
       <c r="N16" s="1">
-        <v>-118.424000</v>
+        <v>-118.42400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>72226.633038</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.062954</v>
+        <v>20.062954000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>949.586000</v>
+        <v>949.58600000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.836000</v>
+        <v>-102.836</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>72236.809742</v>
+        <v>72236.809741999998</v>
       </c>
       <c r="V16" s="1">
-        <v>20.065780</v>
+        <v>20.06578</v>
       </c>
       <c r="W16" s="1">
-        <v>956.480000</v>
+        <v>956.48</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.282300</v>
+        <v>-88.282300000000006</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>72247.014185</v>
+        <v>72247.014185000007</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.068615</v>
+        <v>20.068615000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.060000</v>
+        <v>964.06</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.002300</v>
+        <v>-77.002300000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>72257.188118</v>
+        <v>72257.188118000005</v>
       </c>
       <c r="AF16" s="1">
         <v>20.071441</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.000000</v>
+        <v>969</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.936500</v>
+        <v>-74.936499999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>72267.746921</v>
+        <v>72267.746920999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.074374</v>
+        <v>20.074373999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.495000</v>
+        <v>976.495</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.487000</v>
+        <v>-79.486999999999995</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>72278.528985</v>
+        <v>72278.528984999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.077369</v>
+        <v>20.077369000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.774000</v>
+        <v>984.774</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.889200</v>
+        <v>-90.889200000000002</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>72289.851130</v>
+        <v>72289.851129999995</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.080514</v>
+        <v>20.080514000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.720000</v>
+        <v>994.72</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.273000</v>
+        <v>-108.273</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>72300.910460</v>
+        <v>72300.910459999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.083586</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>72311.899293</v>
+        <v>72311.899292999995</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.086639</v>
+        <v>20.086639000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1041.970000</v>
+        <v>1041.97</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.369000</v>
+        <v>-194.369</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>72323.259166</v>
+        <v>72323.259166000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.089794</v>
+        <v>20.089794000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1108.810000</v>
+        <v>1108.81</v>
       </c>
       <c r="BL16" s="1">
-        <v>-308.398000</v>
+        <v>-308.39800000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>72335.612031</v>
+        <v>72335.612030999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>20.093226</v>
+        <v>20.093226000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-487.112000</v>
+        <v>-487.11200000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>72346.898495</v>
+        <v>72346.898495000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.096361</v>
+        <v>20.096361000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.510000</v>
+        <v>1337.51</v>
       </c>
       <c r="BV16" s="1">
-        <v>-682.394000</v>
+        <v>-682.39400000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>72357.459809</v>
+        <v>72357.459809000007</v>
       </c>
       <c r="BY16" s="1">
         <v>20.099294</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.480000</v>
+        <v>1471.48</v>
       </c>
       <c r="CA16" s="1">
-        <v>-889.526000</v>
+        <v>-889.52599999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>72370.054720</v>
+        <v>72370.05472</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.102793</v>
+        <v>20.102792999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1819.980000</v>
+        <v>1819.98</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1379.060000</v>
+        <v>-1379.06</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>72195.397975</v>
       </c>
       <c r="B17" s="1">
-        <v>20.054277</v>
+        <v>20.054276999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>902.723000</v>
+        <v>902.72299999999996</v>
       </c>
       <c r="D17" s="1">
-        <v>-195.192000</v>
+        <v>-195.19200000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>72206.232089</v>
+        <v>72206.232088999997</v>
       </c>
       <c r="G17" s="1">
-        <v>20.057287</v>
+        <v>20.057286999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>919.817000</v>
+        <v>919.81700000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-165.795000</v>
+        <v>-165.79499999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>72216.722475</v>
+        <v>72216.722475000002</v>
       </c>
       <c r="L17" s="1">
-        <v>20.060201</v>
+        <v>20.060200999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.939000</v>
+        <v>942.93899999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.454000</v>
+        <v>-118.45399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>72226.911327</v>
+        <v>72226.911326999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.063031</v>
+        <v>20.063030999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>949.601000</v>
+        <v>949.601</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.813000</v>
+        <v>-102.813</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>72237.153712</v>
+        <v>72237.153711999999</v>
       </c>
       <c r="V17" s="1">
-        <v>20.065876</v>
+        <v>20.065875999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>956.474000</v>
+        <v>956.47400000000005</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.219500</v>
+        <v>-88.219499999999996</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>72247.364819</v>
+        <v>72247.364818999995</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.068712</v>
+        <v>20.068712000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.008000</v>
+        <v>964.00800000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.932600</v>
+        <v>-76.932599999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>72257.532310</v>
+        <v>72257.532309999995</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.071537</v>
+        <v>20.071536999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.051000</v>
+        <v>969.05100000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.939100</v>
+        <v>-74.939099999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>72268.443303</v>
+        <v>72268.443302999993</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.074568</v>
+        <v>20.074567999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.481000</v>
+        <v>976.48099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.506100</v>
+        <v>-79.506100000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>72279.247193</v>
+        <v>72279.247193000003</v>
       </c>
       <c r="AP17" s="1">
         <v>20.077569</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.755000</v>
+        <v>984.755</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.898000</v>
+        <v>-90.897999999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>72290.235530</v>
+        <v>72290.235530000005</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.080621</v>
+        <v>20.080621000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.727000</v>
+        <v>994.72699999999998</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.279000</v>
+        <v>-108.279</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>72301.272508</v>
+        <v>72301.272507999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.083687</v>
+        <v>20.083687000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.702000</v>
+        <v>-123.702</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>72312.263861</v>
+        <v>72312.263860999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.086740</v>
+        <v>20.086739999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.381000</v>
+        <v>-194.381</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>72323.959518</v>
+        <v>72323.959518000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.089989</v>
+        <v>20.089988999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1108.790000</v>
+        <v>1108.79</v>
       </c>
       <c r="BL17" s="1">
-        <v>-308.404000</v>
+        <v>-308.404</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>72335.720190</v>
+        <v>72335.720189999993</v>
       </c>
       <c r="BO17" s="1">
         <v>20.093256</v>
       </c>
       <c r="BP17" s="1">
-        <v>1216.590000</v>
+        <v>1216.5899999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-487.130000</v>
+        <v>-487.13</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>72347.008607</v>
+        <v>72347.008606999996</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.096391</v>
+        <v>20.096391000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.530000</v>
+        <v>1337.53</v>
       </c>
       <c r="BV17" s="1">
-        <v>-682.292000</v>
+        <v>-682.29200000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>72357.898936</v>
+        <v>72357.898935999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.099416</v>
+        <v>20.099416000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.470000</v>
+        <v>1471.47</v>
       </c>
       <c r="CA17" s="1">
-        <v>-889.400000</v>
+        <v>-889.4</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>72370.571056</v>
+        <v>72370.571056000001</v>
       </c>
       <c r="CD17" s="1">
         <v>20.102936</v>
       </c>
       <c r="CE17" s="1">
-        <v>1820.140000</v>
+        <v>1820.14</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1378.900000</v>
+        <v>-1378.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>72195.831975</v>
+        <v>72195.831974999994</v>
       </c>
       <c r="B18" s="1">
-        <v>20.054398</v>
+        <v>20.054397999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>902.881000</v>
+        <v>902.88099999999997</v>
       </c>
       <c r="D18" s="1">
-        <v>-195.298000</v>
+        <v>-195.298</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>72206.498441</v>
+        <v>72206.498441000003</v>
       </c>
       <c r="G18" s="1">
         <v>20.057361</v>
       </c>
       <c r="H18" s="1">
-        <v>919.774000</v>
+        <v>919.774</v>
       </c>
       <c r="I18" s="1">
-        <v>-165.384000</v>
+        <v>-165.38399999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>72217.015115</v>
+        <v>72217.015115000002</v>
       </c>
       <c r="L18" s="1">
-        <v>20.060282</v>
+        <v>20.060282000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>942.593000</v>
+        <v>942.59299999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-118.494000</v>
+        <v>-118.494</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>72227.258989</v>
+        <v>72227.258988999994</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.063127</v>
+        <v>20.063127000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>949.600000</v>
+        <v>949.6</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.795000</v>
+        <v>-102.795</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>72237.499393</v>
+        <v>72237.499393000006</v>
       </c>
       <c r="V18" s="1">
-        <v>20.065972</v>
+        <v>20.065971999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>956.380000</v>
+        <v>956.38</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.241600</v>
+        <v>-88.241600000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>72247.710036</v>
+        <v>72247.710036000004</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.068808</v>
+        <v>20.068808000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.012000</v>
+        <v>964.01199999999994</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.977900</v>
+        <v>-76.977900000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>72258.219304</v>
+        <v>72258.219303999998</v>
       </c>
       <c r="AF18" s="1">
         <v>20.071728</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.948000</v>
+        <v>968.94799999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.939500</v>
+        <v>-74.939499999999995</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>72268.789513</v>
+        <v>72268.789512999996</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.074664</v>
+        <v>20.074663999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.534000</v>
+        <v>976.53399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.517600</v>
+        <v>-79.517600000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>72279.609736</v>
+        <v>72279.609735999999</v>
       </c>
       <c r="AP18" s="1">
         <v>20.077669</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.762000</v>
+        <v>984.76199999999994</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.863900</v>
+        <v>-90.863900000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>72290.599595</v>
+        <v>72290.599595000007</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.080722</v>
+        <v>20.080722000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.725000</v>
+        <v>994.72500000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.256000</v>
+        <v>-108.256</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>72301.960459</v>
+        <v>72301.960458999994</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.083878</v>
+        <v>20.083877999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.689000</v>
+        <v>-123.68899999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>72312.938946</v>
+        <v>72312.938945999995</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.086927</v>
+        <v>20.086926999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.357000</v>
+        <v>-194.357</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>72324.418624</v>
+        <v>72324.418623999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.090116</v>
+        <v>20.090115999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL18" s="1">
-        <v>-308.403000</v>
+        <v>-308.40300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>72336.112494</v>
+        <v>72336.112494000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.093365</v>
+        <v>20.093364999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-487.121000</v>
+        <v>-487.12099999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>72347.445583</v>
+        <v>72347.445582999993</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.096513</v>
+        <v>20.096513000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.510000</v>
+        <v>1337.51</v>
       </c>
       <c r="BV18" s="1">
-        <v>-682.200000</v>
+        <v>-682.2</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>72358.356576</v>
+        <v>72358.356576000006</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.099543</v>
+        <v>20.099543000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.450000</v>
+        <v>1471.45</v>
       </c>
       <c r="CA18" s="1">
-        <v>-889.441000</v>
+        <v>-889.44100000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>72371.125119</v>
+        <v>72371.125119000004</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.103090</v>
+        <v>20.103090000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>1820.810000</v>
+        <v>1820.81</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1379.330000</v>
+        <v>-1379.33</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>72196.097830</v>
+        <v>72196.097829999999</v>
       </c>
       <c r="B19" s="1">
-        <v>20.054472</v>
+        <v>20.054472000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>902.913000</v>
+        <v>902.91300000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-195.168000</v>
+        <v>-195.16800000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>72206.842664</v>
+        <v>72206.842663999996</v>
       </c>
       <c r="G19" s="1">
-        <v>20.057456</v>
+        <v>20.057455999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>919.638000</v>
+        <v>919.63800000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-165.384000</v>
+        <v>-165.38399999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>72217.356860</v>
+        <v>72217.35686</v>
       </c>
       <c r="L19" s="1">
-        <v>20.060377</v>
+        <v>20.060376999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.706000</v>
+        <v>942.70600000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.332000</v>
+        <v>-118.33199999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>72227.608669</v>
+        <v>72227.608668999994</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.063225</v>
+        <v>20.063224999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>949.653000</v>
+        <v>949.65300000000002</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.831000</v>
+        <v>-102.831</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>72238.184367</v>
+        <v>72238.184366999994</v>
       </c>
       <c r="V19" s="1">
-        <v>20.066162</v>
+        <v>20.066161999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>956.487000</v>
+        <v>956.48699999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.356200</v>
+        <v>-88.356200000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>72248.409393</v>
+        <v>72248.409392999994</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.069003</v>
+        <v>20.069002999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.115000</v>
+        <v>964.11500000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.983300</v>
+        <v>-76.9833</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>72258.560020</v>
+        <v>72258.560020000004</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.071822</v>
+        <v>20.071822000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.942000</v>
+        <v>968.94200000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.878700</v>
+        <v>-74.878699999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>72269.139690</v>
+        <v>72269.139689999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.074761</v>
+        <v>20.074760999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.515000</v>
+        <v>976.51499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.524300</v>
+        <v>-79.524299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>72279.969832</v>
+        <v>72279.969832000002</v>
       </c>
       <c r="AP19" s="1">
         <v>20.077769</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.768000</v>
+        <v>984.76800000000003</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.876900</v>
+        <v>-90.876900000000006</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>72291.287081</v>
+        <v>72291.287081000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.080913</v>
+        <v>20.080912999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.720000</v>
+        <v>994.72</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.265000</v>
+        <v>-108.265</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>72302.352827</v>
+        <v>72302.352826999995</v>
       </c>
       <c r="AZ19" s="1">
         <v>20.083987</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.694000</v>
+        <v>-123.694</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>72313.361996</v>
+        <v>72313.361996000007</v>
       </c>
       <c r="BE19" s="1">
         <v>20.087045</v>
       </c>
       <c r="BF19" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.362000</v>
+        <v>-194.36199999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>72324.808670</v>
+        <v>72324.808669999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.090225</v>
       </c>
       <c r="BK19" s="1">
-        <v>1108.790000</v>
+        <v>1108.79</v>
       </c>
       <c r="BL19" s="1">
-        <v>-308.390000</v>
+        <v>-308.39</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>72336.534148</v>
+        <v>72336.534148000006</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.093482</v>
+        <v>20.093482000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1216.620000</v>
+        <v>1216.6199999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-487.105000</v>
+        <v>-487.10500000000002</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>72347.857758</v>
+        <v>72347.857757999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.096627</v>
+        <v>20.096627000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.470000</v>
+        <v>1337.47</v>
       </c>
       <c r="BV19" s="1">
-        <v>-682.150000</v>
+        <v>-682.15</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>72358.803471</v>
+        <v>72358.803471000007</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.099668</v>
+        <v>20.099668000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.430000</v>
+        <v>1471.43</v>
       </c>
       <c r="CA19" s="1">
-        <v>-889.487000</v>
+        <v>-889.48699999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>72371.655311</v>
+        <v>72371.655310999995</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.103238</v>
+        <v>20.103238000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1819.660000</v>
+        <v>1819.66</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1379.060000</v>
+        <v>-1379.06</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>72196.437624</v>
+        <v>72196.437623999998</v>
       </c>
       <c r="B20" s="1">
-        <v>20.054566</v>
+        <v>20.054566000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>902.698000</v>
+        <v>902.69799999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-195.024000</v>
+        <v>-195.024</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72207.186889</v>
+        <v>72207.186889000004</v>
       </c>
       <c r="G20" s="1">
-        <v>20.057552</v>
+        <v>20.057552000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>919.941000</v>
+        <v>919.94100000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-165.446000</v>
+        <v>-165.446</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>72218.035882</v>
+        <v>72218.035881999996</v>
       </c>
       <c r="L20" s="1">
-        <v>20.060566</v>
+        <v>20.060566000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>942.869000</v>
+        <v>942.86900000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.425000</v>
+        <v>-118.425</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>72228.303564</v>
+        <v>72228.303564000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>20.063418</v>
+        <v>20.063417999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>949.582000</v>
+        <v>949.58199999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.853000</v>
+        <v>-102.85299999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>72238.527102</v>
+        <v>72238.527101999993</v>
       </c>
       <c r="V20" s="1">
-        <v>20.066258</v>
+        <v>20.066258000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>956.532000</v>
+        <v>956.53200000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.280800</v>
+        <v>-88.280799999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>72248.758679</v>
+        <v>72248.758679000006</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.069100</v>
+        <v>20.069099999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.058000</v>
+        <v>964.05799999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.015200</v>
+        <v>-77.015199999999993</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>72258.906725</v>
+        <v>72258.906724999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.071919</v>
+        <v>20.071919000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.991000</v>
+        <v>968.99099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.836500</v>
+        <v>-74.836500000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>72269.807301</v>
+        <v>72269.807300999993</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.074946</v>
+        <v>20.074946000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.506000</v>
+        <v>976.50599999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.503700</v>
+        <v>-79.503699999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>72280.647404</v>
+        <v>72280.647404000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.077958</v>
+        <v>20.077957999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.755000</v>
+        <v>984.755</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.904900</v>
+        <v>-90.904899999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>72291.723034</v>
+        <v>72291.723033999995</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.081034</v>
+        <v>20.081033999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.724000</v>
+        <v>994.72400000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.248000</v>
+        <v>-108.248</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>72302.732234</v>
+        <v>72302.732233999996</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.084092</v>
+        <v>20.084091999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>72313.757307</v>
+        <v>72313.757307000007</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.087155</v>
+        <v>20.087154999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1041.990000</v>
+        <v>1041.99</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.380000</v>
+        <v>-194.38</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>72325.181164</v>
+        <v>72325.181163999994</v>
       </c>
       <c r="BJ20" s="1">
         <v>20.090328</v>
       </c>
       <c r="BK20" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL20" s="1">
-        <v>-308.432000</v>
+        <v>-308.43200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>72336.970606</v>
+        <v>72336.970606000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.093603</v>
+        <v>20.093603000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-487.113000</v>
+        <v>-487.113</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>72348.289774</v>
+        <v>72348.289774000004</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.096747</v>
+        <v>20.096747000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.480000</v>
+        <v>1337.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-682.093000</v>
+        <v>-682.09299999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>72359.262303</v>
+        <v>72359.262302999996</v>
       </c>
       <c r="BY20" s="1">
         <v>20.099795</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="CA20" s="1">
-        <v>-889.450000</v>
+        <v>-889.45</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>72372.172142</v>
+        <v>72372.172141999996</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.103381</v>
+        <v>20.103380999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1820.160000</v>
+        <v>1820.16</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1378.820000</v>
+        <v>-1378.82</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>72196.778838</v>
+        <v>72196.778837999998</v>
       </c>
       <c r="B21" s="1">
-        <v>20.054661</v>
+        <v>20.054660999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>902.639000</v>
+        <v>902.63900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-195.111000</v>
+        <v>-195.11099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>72207.881822</v>
+        <v>72207.881821999996</v>
       </c>
       <c r="G21" s="1">
-        <v>20.057745</v>
+        <v>20.057745000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>919.947000</v>
+        <v>919.947</v>
       </c>
       <c r="I21" s="1">
-        <v>-164.793000</v>
+        <v>-164.79300000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>72218.393003</v>
+        <v>72218.393003000005</v>
       </c>
       <c r="L21" s="1">
         <v>20.060665</v>
       </c>
       <c r="M21" s="1">
-        <v>942.546000</v>
+        <v>942.54600000000005</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.500000</v>
+        <v>-118.5</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>72228.653739</v>
+        <v>72228.653739000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.063515</v>
+        <v>20.063514999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>949.618000</v>
+        <v>949.61800000000005</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.865000</v>
+        <v>-102.86499999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>72238.870862</v>
+        <v>72238.870861999996</v>
       </c>
       <c r="V21" s="1">
-        <v>20.066353</v>
+        <v>20.066352999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>956.482000</v>
+        <v>956.48199999999997</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.239000</v>
+        <v>-88.239000000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>72249.105777</v>
+        <v>72249.105777000004</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.069196</v>
+        <v>20.069196000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.041000</v>
+        <v>964.04100000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.053500</v>
+        <v>-77.0535</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>72259.571390</v>
+        <v>72259.571389999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.072103</v>
+        <v>20.072102999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.003000</v>
+        <v>969.00300000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.020700</v>
+        <v>-75.020700000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>72270.188230</v>
+        <v>72270.18823</v>
       </c>
       <c r="AK21" s="1">
-        <v>20.075052</v>
+        <v>20.075051999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.509000</v>
+        <v>976.50900000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.530400</v>
+        <v>-79.5304</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>72281.077431</v>
+        <v>72281.077430999998</v>
       </c>
       <c r="AP21" s="1">
         <v>20.078077</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.760000</v>
+        <v>984.76</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.889200</v>
+        <v>-90.889200000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>72292.084616</v>
+        <v>72292.084615999993</v>
       </c>
       <c r="AU21" s="1">
         <v>20.081135</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.728000</v>
+        <v>994.72799999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.270000</v>
+        <v>-108.27</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>72303.110185</v>
+        <v>72303.110184999998</v>
       </c>
       <c r="AZ21" s="1">
         <v>20.084197</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>72314.113468</v>
+        <v>72314.113467999996</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.087254</v>
+        <v>20.087254000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.010000</v>
+        <v>1042.01</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.381000</v>
+        <v>-194.381</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>72325.611691</v>
+        <v>72325.611690999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.090448</v>
+        <v>20.090447999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1108.770000</v>
+        <v>1108.77</v>
       </c>
       <c r="BL21" s="1">
-        <v>-308.429000</v>
+        <v>-308.42899999999997</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>72337.353019</v>
+        <v>72337.353019000002</v>
       </c>
       <c r="BO21" s="1">
         <v>20.093709</v>
       </c>
       <c r="BP21" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-487.117000</v>
+        <v>-487.11700000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>72348.714349</v>
+        <v>72348.714349000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.096865</v>
+        <v>20.096865000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.340000</v>
+        <v>1337.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-682.066000</v>
+        <v>-682.06600000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>72359.711648</v>
+        <v>72359.711647999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.099920</v>
+        <v>20.099920000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.430000</v>
+        <v>1471.43</v>
       </c>
       <c r="CA21" s="1">
-        <v>-889.554000</v>
+        <v>-889.55399999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>72372.726187</v>
+        <v>72372.726186999993</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.103535</v>
+        <v>20.103535000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1820.740000</v>
+        <v>1820.74</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1379.470000</v>
+        <v>-1379.47</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>72197.460868</v>
+        <v>72197.460867999995</v>
       </c>
       <c r="B22" s="1">
-        <v>20.054850</v>
+        <v>20.054849999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>902.799000</v>
+        <v>902.79899999999998</v>
       </c>
       <c r="D22" s="1">
-        <v>-195.089000</v>
+        <v>-195.089</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>72208.226998</v>
+        <v>72208.226997999998</v>
       </c>
       <c r="G22" s="1">
         <v>20.057841</v>
       </c>
       <c r="H22" s="1">
-        <v>920.374000</v>
+        <v>920.37400000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-165.146000</v>
+        <v>-165.14599999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>72218.737720</v>
+        <v>72218.737720000005</v>
       </c>
       <c r="L22" s="1">
-        <v>20.060760</v>
+        <v>20.060759999999998</v>
       </c>
       <c r="M22" s="1">
-        <v>942.802000</v>
+        <v>942.80200000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.384000</v>
+        <v>-118.384</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>72229.001435</v>
+        <v>72229.001434999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.063612</v>
+        <v>20.063611999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>949.596000</v>
+        <v>949.596</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.854000</v>
+        <v>-102.854</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>72239.543405</v>
+        <v>72239.543405000004</v>
       </c>
       <c r="V22" s="1">
-        <v>20.066540</v>
+        <v>20.06654</v>
       </c>
       <c r="W22" s="1">
-        <v>956.492000</v>
+        <v>956.49199999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.324000</v>
+        <v>-88.323999999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>72249.774384</v>
+        <v>72249.774384000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.069382</v>
+        <v>20.069382000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.048000</v>
+        <v>964.048</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.021400</v>
+        <v>-77.0214</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>72259.943859</v>
+        <v>72259.943859000006</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.072207</v>
+        <v>20.072206999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.036000</v>
+        <v>969.03599999999994</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.883100</v>
+        <v>-74.883099999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>72270.533446</v>
+        <v>72270.533446000001</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.075148</v>
+        <v>20.075147999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.503000</v>
+        <v>976.50300000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.506600</v>
+        <v>-79.506600000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>72281.436006</v>
+        <v>72281.436006000004</v>
       </c>
       <c r="AP22" s="1">
         <v>20.078177</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.765000</v>
+        <v>984.76499999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.911300</v>
+        <v>-90.911299999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>72292.452647</v>
+        <v>72292.452646999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.081237</v>
+        <v>20.081237000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.748000</v>
+        <v>994.74800000000005</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.245000</v>
+        <v>-108.245</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>72303.546168</v>
+        <v>72303.546168000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>20.084318</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.090000</v>
+        <v>1003.09</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.687000</v>
+        <v>-123.687</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>72314.544954</v>
+        <v>72314.544953999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.087374</v>
+        <v>20.087374000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1041.980000</v>
+        <v>1041.98</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.378000</v>
+        <v>-194.37799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>72325.935592</v>
+        <v>72325.935591999994</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.090538</v>
+        <v>20.090537999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL22" s="1">
-        <v>-308.398000</v>
+        <v>-308.39800000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>72337.750283</v>
+        <v>72337.750283000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.093820</v>
+        <v>20.093820000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-487.134000</v>
+        <v>-487.13400000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>72349.127020</v>
+        <v>72349.12702</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.096980</v>
+        <v>20.096979999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.300000</v>
+        <v>1337.3</v>
       </c>
       <c r="BV22" s="1">
-        <v>-682.039000</v>
+        <v>-682.03899999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>72360.168992</v>
+        <v>72360.168992000006</v>
       </c>
       <c r="BY22" s="1">
         <v>20.100047</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.530000</v>
+        <v>1471.53</v>
       </c>
       <c r="CA22" s="1">
-        <v>-889.558000</v>
+        <v>-889.55799999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>72373.255404</v>
+        <v>72373.255403999996</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.103682</v>
+        <v>20.103681999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1820.000000</v>
+        <v>1820</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1379.070000</v>
+        <v>-1379.07</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>72197.804564</v>
+        <v>72197.804564000005</v>
       </c>
       <c r="B23" s="1">
-        <v>20.054946</v>
+        <v>20.054946000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.818000</v>
+        <v>902.81799999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-194.991000</v>
+        <v>-194.99100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>72208.574694</v>
+        <v>72208.574693999995</v>
       </c>
       <c r="G23" s="1">
-        <v>20.057937</v>
+        <v>20.057936999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>919.931000</v>
+        <v>919.93100000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-165.396000</v>
+        <v>-165.39599999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>72219.406824</v>
+        <v>72219.406824000005</v>
       </c>
       <c r="L23" s="1">
-        <v>20.060946</v>
+        <v>20.060946000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>942.785000</v>
+        <v>942.78499999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.425000</v>
+        <v>-118.425</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>72229.669050</v>
+        <v>72229.669049999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.063797</v>
+        <v>20.063797000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>949.617000</v>
+        <v>949.61699999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.766000</v>
+        <v>-102.76600000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>72239.908958</v>
       </c>
       <c r="V23" s="1">
-        <v>20.066641</v>
+        <v>20.066641000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>956.461000</v>
+        <v>956.46100000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.174900</v>
+        <v>-88.174899999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>72250.153864</v>
+        <v>72250.153864000007</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.069487</v>
+        <v>20.069486999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.116000</v>
+        <v>964.11599999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.976100</v>
+        <v>-76.976100000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>72260.294034</v>
+        <v>72260.294034000006</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.072304</v>
+        <v>20.072303999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.052000</v>
+        <v>969.05200000000002</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.898100</v>
+        <v>-74.898099999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>72270.882132</v>
+        <v>72270.882131999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.075245</v>
+        <v>20.075244999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.479000</v>
+        <v>976.47900000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.533200</v>
+        <v>-79.533199999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>72281.796597</v>
+        <v>72281.796596999993</v>
       </c>
       <c r="AP23" s="1">
         <v>20.078277</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.752000</v>
+        <v>984.75199999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.907200</v>
+        <v>-90.907200000000003</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>72292.888632</v>
+        <v>72292.888632000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.081358</v>
+        <v>20.081358000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.726000</v>
+        <v>994.726</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.265000</v>
+        <v>-108.265</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>72303.825449</v>
+        <v>72303.825448999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.084396</v>
+        <v>20.084396000000002</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.688000</v>
+        <v>-123.688</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>72314.844539</v>
+        <v>72314.844538999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.087457</v>
+        <v>20.087457000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1041.970000</v>
+        <v>1041.97</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.365000</v>
+        <v>-194.36500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>72326.317512</v>
+        <v>72326.317511999994</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.090644</v>
+        <v>20.090644000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL23" s="1">
-        <v>-308.380000</v>
+        <v>-308.38</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>72338.174363</v>
+        <v>72338.174362999998</v>
       </c>
       <c r="BO23" s="1">
         <v>20.093937</v>
       </c>
       <c r="BP23" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-487.133000</v>
+        <v>-487.13299999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>72349.559533</v>
+        <v>72349.559533000007</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.097100</v>
+        <v>20.097100000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.300000</v>
+        <v>1337.3</v>
       </c>
       <c r="BV23" s="1">
-        <v>-681.953000</v>
+        <v>-681.95299999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>72360.616382</v>
+        <v>72360.616381999993</v>
       </c>
       <c r="BY23" s="1">
         <v>20.100171</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.460000</v>
+        <v>1471.46</v>
       </c>
       <c r="CA23" s="1">
-        <v>-889.549000</v>
+        <v>-889.54899999999998</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>72373.773228</v>
+        <v>72373.773228000005</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.103826</v>
+        <v>20.103826000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1820.340000</v>
+        <v>1820.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1378.780000</v>
+        <v>-1378.78</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>72198.148787</v>
+        <v>72198.148786999998</v>
       </c>
       <c r="B24" s="1">
-        <v>20.055041</v>
+        <v>20.055040999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>902.825000</v>
+        <v>902.82500000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-195.003000</v>
+        <v>-195.00299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>72209.238838</v>
+        <v>72209.238838000005</v>
       </c>
       <c r="G24" s="1">
-        <v>20.058122</v>
+        <v>20.058122000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>920.164000</v>
+        <v>920.16399999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-165.357000</v>
+        <v>-165.357</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>72219.774856</v>
+        <v>72219.774856000004</v>
       </c>
       <c r="L24" s="1">
-        <v>20.061049</v>
+        <v>20.061049000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>942.647000</v>
+        <v>942.64700000000005</v>
       </c>
       <c r="N24" s="1">
-        <v>-118.517000</v>
+        <v>-118.517</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>72230.047498</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.063902</v>
+        <v>20.063901999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>949.655000</v>
+        <v>949.65499999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.813000</v>
+        <v>-102.813</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>72240.255660</v>
+        <v>72240.255659999995</v>
       </c>
       <c r="V24" s="1">
-        <v>20.066738</v>
+        <v>20.066738000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>956.491000</v>
+        <v>956.49099999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.228900</v>
+        <v>-88.228899999999996</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>72250.501549</v>
+        <v>72250.501548999993</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.069584</v>
+        <v>20.069583999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.077000</v>
+        <v>964.077</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.028600</v>
+        <v>-77.028599999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>72260.636801</v>
+        <v>72260.636801000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.072399</v>
+        <v>20.072399000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.012000</v>
+        <v>969.01199999999994</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.790400</v>
+        <v>-74.790400000000005</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>72271.320099</v>
+        <v>72271.320099000004</v>
       </c>
       <c r="AK24" s="1">
         <v>20.075367</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.504000</v>
+        <v>976.50400000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.505200</v>
+        <v>-79.505200000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>72282.236053</v>
+        <v>72282.236053000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>20.078399</v>
+        <v>20.078399000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.754000</v>
+        <v>984.75400000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.894800</v>
+        <v>-90.894800000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>72293.179814</v>
+        <v>72293.179814000003</v>
       </c>
       <c r="AU24" s="1">
         <v>20.081439</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.727000</v>
+        <v>994.72699999999998</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.272000</v>
+        <v>-108.27200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>72304.185016</v>
+        <v>72304.185016000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.084496</v>
+        <v>20.084496000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.120000</v>
+        <v>1003.12</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>72315.208601</v>
+        <v>72315.208601000006</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.087558</v>
+        <v>20.087558000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.371000</v>
+        <v>-194.37100000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>72326.707355</v>
+        <v>72326.707355000006</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.090752</v>
+        <v>20.090751999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1108.780000</v>
+        <v>1108.78</v>
       </c>
       <c r="BL24" s="1">
-        <v>-308.396000</v>
+        <v>-308.39600000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>72338.986810</v>
+        <v>72338.986810000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.094163</v>
+        <v>20.094163000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1216.600000</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-487.113000</v>
+        <v>-487.113</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>72349.986588</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.097218</v>
+        <v>20.097218000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.210000</v>
+        <v>1337.21</v>
       </c>
       <c r="BV24" s="1">
-        <v>-682.004000</v>
+        <v>-682.00400000000002</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>72361.067213</v>
+        <v>72361.067213000002</v>
       </c>
       <c r="BY24" s="1">
         <v>20.100296</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.570000</v>
+        <v>1471.57</v>
       </c>
       <c r="CA24" s="1">
-        <v>-889.567000</v>
+        <v>-889.56700000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>72374.326272</v>
+        <v>72374.326272000006</v>
       </c>
       <c r="CD24" s="1">
-        <v>20.103980</v>
+        <v>20.10398</v>
       </c>
       <c r="CE24" s="1">
-        <v>1820.780000</v>
+        <v>1820.78</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1379.500000</v>
+        <v>-1379.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>72198.800568</v>
+        <v>72198.800568000006</v>
       </c>
       <c r="B25" s="1">
-        <v>20.055222</v>
+        <v>20.055222000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>902.807000</v>
+        <v>902.80700000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-195.059000</v>
+        <v>-195.059</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>72209.608390</v>
+        <v>72209.608389999994</v>
       </c>
       <c r="G25" s="1">
         <v>20.058225</v>
       </c>
       <c r="H25" s="1">
-        <v>919.832000</v>
+        <v>919.83199999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-165.411000</v>
+        <v>-165.411</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>72220.123576</v>
+        <v>72220.123575999998</v>
       </c>
       <c r="L25" s="1">
         <v>20.061145</v>
       </c>
       <c r="M25" s="1">
-        <v>942.753000</v>
+        <v>942.75300000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-118.332000</v>
+        <v>-118.33199999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>72230.397673</v>
+        <v>72230.397672999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.063999</v>
+        <v>20.063998999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>949.637000</v>
+        <v>949.63699999999994</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.833000</v>
+        <v>-102.833</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>72240.597435</v>
+        <v>72240.597435000003</v>
       </c>
       <c r="V25" s="1">
-        <v>20.066833</v>
+        <v>20.066832999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>956.474000</v>
+        <v>956.47400000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.347600</v>
+        <v>-88.3476</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>72250.944979</v>
+        <v>72250.944979000007</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.069707</v>
+        <v>20.069707000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.069000</v>
+        <v>964.06899999999996</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.041200</v>
+        <v>-77.041200000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72261.062870</v>
+        <v>72261.062869999994</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.072517</v>
+        <v>20.072517000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.877000</v>
+        <v>968.87699999999995</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.033700</v>
+        <v>-75.033699999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>72271.590947</v>
+        <v>72271.590947000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.075442</v>
+        <v>20.075441999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.526000</v>
+        <v>976.52599999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.490400</v>
+        <v>-79.490399999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>72282.518773</v>
+        <v>72282.518773000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.078477</v>
+        <v>20.078476999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.763000</v>
+        <v>984.76300000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.894300</v>
+        <v>-90.894300000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>72293.543381</v>
+        <v>72293.543380999996</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.081540</v>
+        <v>20.08154</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.755000</v>
+        <v>994.755</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.271000</v>
+        <v>-108.271</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>72304.544119</v>
+        <v>72304.544118999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.084596</v>
+        <v>20.084596000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.684000</v>
+        <v>-123.684</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>72315.559273</v>
+        <v>72315.559273000006</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.087655</v>
+        <v>20.087655000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.010000</v>
+        <v>1042.01</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.391000</v>
+        <v>-194.39099999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>72327.458297</v>
+        <v>72327.458297000005</v>
       </c>
       <c r="BJ25" s="1">
         <v>20.090961</v>
       </c>
       <c r="BK25" s="1">
-        <v>1108.790000</v>
+        <v>1108.79</v>
       </c>
       <c r="BL25" s="1">
-        <v>-308.402000</v>
+        <v>-308.40199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>72339.407417</v>
+        <v>72339.407416999995</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.094280</v>
+        <v>20.094280000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-487.108000</v>
+        <v>-487.108</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>72350.398763</v>
+        <v>72350.398763000005</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.097333</v>
+        <v>20.097332999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV25" s="1">
-        <v>-682.031000</v>
+        <v>-682.03099999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>72361.487822</v>
+        <v>72361.487821999996</v>
       </c>
       <c r="BY25" s="1">
         <v>20.100413</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.450000</v>
+        <v>1471.45</v>
       </c>
       <c r="CA25" s="1">
-        <v>-889.415000</v>
+        <v>-889.41499999999996</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>72375.164537</v>
+        <v>72375.164537000004</v>
       </c>
       <c r="CD25" s="1">
         <v>20.104212</v>
       </c>
       <c r="CE25" s="1">
-        <v>1819.890000</v>
+        <v>1819.89</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1378.900000</v>
+        <v>-1378.9</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>72199.171042</v>
+        <v>72199.171042000002</v>
       </c>
       <c r="B26" s="1">
         <v>20.055325</v>
       </c>
       <c r="C26" s="1">
-        <v>902.955000</v>
+        <v>902.95500000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-195.062000</v>
+        <v>-195.06200000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>72209.952580</v>
+        <v>72209.952579999997</v>
       </c>
       <c r="G26" s="1">
-        <v>20.058320</v>
+        <v>20.058319999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>920.201000</v>
+        <v>920.20100000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-165.200000</v>
+        <v>-165.2</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>72220.468273</v>
+        <v>72220.468273000006</v>
       </c>
       <c r="L26" s="1">
-        <v>20.061241</v>
+        <v>20.061240999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>942.693000</v>
+        <v>942.69299999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.363000</v>
+        <v>-118.363</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>72230.747353</v>
+        <v>72230.747352999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.064096</v>
+        <v>20.064095999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>949.604000</v>
+        <v>949.60400000000004</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>72241.023995</v>
+        <v>72241.023994999996</v>
       </c>
       <c r="V26" s="1">
         <v>20.066951</v>
       </c>
       <c r="W26" s="1">
-        <v>956.536000</v>
+        <v>956.53599999999994</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.323400</v>
+        <v>-88.323400000000007</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>72251.222702</v>
+        <v>72251.222701999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>20.069784</v>
+        <v>20.069783999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.059000</v>
+        <v>964.05899999999997</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.030600</v>
+        <v>-77.030600000000007</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72261.332160</v>
+        <v>72261.332160000005</v>
       </c>
       <c r="AF26" s="1">
         <v>20.072592</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.041000</v>
+        <v>969.04100000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.933900</v>
+        <v>-74.933899999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>72271.939604</v>
+        <v>72271.939603999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.075539</v>
+        <v>20.075538999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.508000</v>
+        <v>976.50800000000004</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.500500</v>
+        <v>-79.500500000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>72282.924997</v>
+        <v>72282.924996999995</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.078590</v>
+        <v>20.078589999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.770000</v>
+        <v>984.77</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.899200</v>
+        <v>-90.899199999999993</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>72293.910391</v>
+        <v>72293.910390999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.081642</v>
+        <v>20.081641999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.713000</v>
+        <v>994.71299999999997</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.257000</v>
+        <v>-108.25700000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>72305.259352</v>
+        <v>72305.259351999994</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.084794</v>
+        <v>20.084793999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.100000</v>
+        <v>1003.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.695000</v>
+        <v>-123.69499999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>72316.282973</v>
+        <v>72316.282972999994</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.087856</v>
+        <v>20.087855999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.000000</v>
+        <v>1042</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.381000</v>
+        <v>-194.381</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>72327.861544</v>
+        <v>72327.861543999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.091073</v>
+        <v>20.091073000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1108.760000</v>
+        <v>1108.76</v>
       </c>
       <c r="BL26" s="1">
-        <v>-308.440000</v>
+        <v>-308.44</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>72339.795784</v>
+        <v>72339.795784000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.094388</v>
+        <v>20.094387999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1216.610000</v>
+        <v>1216.6099999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-487.130000</v>
+        <v>-487.13</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>72351.138330</v>
+        <v>72351.138330000002</v>
       </c>
       <c r="BT26" s="1">
         <v>20.097538</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.100000</v>
+        <v>1337.1</v>
       </c>
       <c r="BV26" s="1">
-        <v>-682.063000</v>
+        <v>-682.06299999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>72362.233804</v>
+        <v>72362.233804000003</v>
       </c>
       <c r="BY26" s="1">
         <v>20.100621</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.400000</v>
+        <v>1471.4</v>
       </c>
       <c r="CA26" s="1">
-        <v>-889.481000</v>
+        <v>-889.48099999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>72375.407050</v>
+        <v>72375.407049999994</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.104280</v>
+        <v>20.104279999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1819.830000</v>
+        <v>1819.83</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1380.130000</v>
+        <v>-1380.13</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>